--- a/testData/ReadAndWriteData.xlsx
+++ b/testData/ReadAndWriteData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>Top Cities</t>
   </si>

--- a/testData/ReadAndWriteData.xlsx
+++ b/testData/ReadAndWriteData.xlsx
@@ -3,21 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408525\git\hackthonV1\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408449\git\hackthonV1\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5313CC-D5BA-422F-A935-AEBC3342BE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0BBBA3-D286-4678-843B-E9C5BC1BF19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7E95DD8B-A033-481F-88F3-D6F98D7B15B9}"/>
   </bookViews>
   <sheets>
     <sheet name="TopCities" sheetId="1" r:id="rId1"/>
+    <sheet name="input" sheetId="3" r:id="rId2"/>
+    <sheet name="hospitalName" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,44 +38,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
-  <si>
-    <t>Top Cities</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>Kolkata</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Ahmedabad</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+  <si>
+    <t>rohan</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>rohan@gmail.com</t>
+  </si>
+  <si>
+    <t>&lt;500</t>
+  </si>
+  <si>
+    <t>Taking a demo</t>
+  </si>
+  <si>
+    <t>siva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as </t>
+  </si>
+  <si>
+    <t>siva@gmail.com</t>
+  </si>
+  <si>
+    <t>krihsna</t>
+  </si>
+  <si>
+    <t>krishna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,16 +123,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -453,64 +468,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9E61B5-D6CB-4812-9DC5-28D8ACD14421}">
-  <dimension ref="B1:B11"/>
+  <dimension ref="B1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B11"/>
+      <selection activeCell="B12" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="19.453125"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s" s="0">
-        <v>8</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED943D8-72C4-441D-B9F0-E524BE35F9EB}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>9108716657</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>812321</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>9108223242</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{FA8628CF-3BA2-4C14-8685-AE7BBAC70CCB}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{81A8B4E0-863D-4164-ACA6-A6604035693C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="B1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/ReadAndWriteData.xlsx
+++ b/testData/ReadAndWriteData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408449\git\hackthonV1\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408457\eclipse-workspace\hackathon\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0BBBA3-D286-4678-843B-E9C5BC1BF19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DFA817-BB82-4A95-BC1B-D8817D7BBF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7E95DD8B-A033-481F-88F3-D6F98D7B15B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{7E95DD8B-A033-481F-88F3-D6F98D7B15B9}"/>
   </bookViews>
   <sheets>
     <sheet name="TopCities" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="28">
   <si>
     <t>rohan</t>
   </si>
@@ -68,12 +68,67 @@
   </si>
   <si>
     <t>krishna</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>Manipal Hospital Varthur Road (formerly Columbia Asia Hospital)</t>
+  </si>
+  <si>
+    <t>Manipal Hospitals</t>
+  </si>
+  <si>
+    <t>Motherhood Hospital</t>
+  </si>
+  <si>
+    <t>Koshys Hospital</t>
+  </si>
+  <si>
+    <t>Apollo Spectra Hospitals</t>
+  </si>
+  <si>
+    <t>Apollo Cradle &amp; Children’s Hospital</t>
+  </si>
+  <si>
+    <t>Cloudnine Hospital - Old Airport Road</t>
+  </si>
+  <si>
+    <t>Cloudnine Hospital</t>
+  </si>
+  <si>
+    <t>Entered information is valid</t>
+  </si>
+  <si>
+    <t>Validation is triggered on entering an invalid input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,20 +523,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9E61B5-D6CB-4812-9DC5-28D8ACD14421}">
-  <dimension ref="B1:B2"/>
+  <dimension ref="B1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B2:B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B4:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="19.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="0">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -490,76 +585,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED943D8-72C4-441D-B9F0-E524BE35F9EB}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="0">
         <v>9108716657</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="G1" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>812321</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="G2" t="s" s="0">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>9108223242</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>4</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -576,14 +680,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="B1:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testData/ReadAndWriteData.xlsx
+++ b/testData/ReadAndWriteData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="28">
   <si>
     <t>rohan</t>
   </si>
